--- a/__data__/file_example_XLSX_10.xlsx
+++ b/__data__/file_example_XLSX_10.xlsx
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Weiland</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
